--- a/resources/Utilaje.xlsx
+++ b/resources/Utilaje.xlsx
@@ -29,30 +29,15 @@
     <t>betoniera</t>
   </si>
   <si>
-    <t>Betoniera Trakker – Iveco</t>
-  </si>
-  <si>
     <t>betoniera_iveco.jpg</t>
   </si>
   <si>
-    <t>TGA32,350 8*4 BB – MAN</t>
-  </si>
-  <si>
     <t xml:space="preserve">Actros 2631 - Mercedes-Benz </t>
   </si>
   <si>
-    <t xml:space="preserve">R420LA4X2MNA/R420 – Scania  </t>
-  </si>
-  <si>
-    <t>R124LA4*2NA420 – Scania</t>
-  </si>
-  <si>
     <t xml:space="preserve">R400LA4X2MNA - SCANIA                       </t>
   </si>
   <si>
-    <t>Macara mobila Grove – GMX2035E</t>
-  </si>
-  <si>
     <t>Liebherr - Macara LTM1030</t>
   </si>
   <si>
@@ -62,21 +47,12 @@
     <t xml:space="preserve">Unimog + Lama+ Sararita  Mercedes-Benz - TYP 408/10 U900    </t>
   </si>
   <si>
-    <t>Automobil mixt – Fiat Ducato 2.3 JTD</t>
-  </si>
-  <si>
-    <t>Autoutilitara – Mercedes-Benz</t>
-  </si>
-  <si>
     <t>Autoutilitara - Citroen Jumper</t>
   </si>
   <si>
     <t xml:space="preserve">Transporter - Volkswagen 7HC    </t>
   </si>
   <si>
-    <t>Incarcator frontal – FIATALLIS FR 15</t>
-  </si>
-  <si>
     <t xml:space="preserve">Incarcator frontal - Hanomag 70 E                   </t>
   </si>
   <si>
@@ -86,120 +62,9 @@
     <t xml:space="preserve">Stivuitor STILL DFG 4106                         </t>
   </si>
   <si>
-    <t>Motogreder – Komatsu GD 555-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greder – Caterpillar 140  H         </t>
-  </si>
-  <si>
-    <t>Buldoexcavator – Caterpillar 428F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buldoexcavator – Caterpillar 427F2     </t>
-  </si>
-  <si>
-    <t>Buldozer – Caterpillar D6M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buldozer – Caterpillar D6M LGP  </t>
-  </si>
-  <si>
-    <t>Buldozer – Caterpillar D6M XL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cilindru compactor – Caterpillar     </t>
-  </si>
-  <si>
-    <t>Cilindru compactor mixt – Lebrero</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cilindru compactor – Terex TV1200                       </t>
-  </si>
-  <si>
-    <t>Cilindru compactor mixt – AMMANN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cilindru compactor mixt – Bomag BW 138 AC      </t>
-  </si>
-  <si>
-    <t>Cilindru compactor Hamm – HD 90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cilindru compactor Hamm – HD 110  </t>
-  </si>
-  <si>
-    <t>Cilindru compactor – Bomag BW 80 AD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cilindru compactor manual – Bomag BW 65 HS        </t>
-  </si>
-  <si>
     <t>Excavator pe pneuri  - Liebherr 904 Litronic</t>
   </si>
   <si>
-    <t xml:space="preserve">Excavator pe pneuri – Liebherr A 900 B     </t>
-  </si>
-  <si>
-    <t>Excavator pe senile – Komatsu PC 210 LC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excavator pe senile – Komatsu PC 210-6 </t>
-  </si>
-  <si>
-    <t>Excavator pe senile – Caterpillar 325 C L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Excavator pe senile – Caterpillar 324 D L  </t>
-  </si>
-  <si>
-    <t>Freza asfalt – Wirtgen W100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freza asfalt – Bitelli SF 101    </t>
-  </si>
-  <si>
-    <t>Finisor – Vogele Super 1600-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finisor – Vogele Super 800   </t>
-  </si>
-  <si>
-    <t>Reciclator asfalt – BAGELA BA7000F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foreza – Wirth Ecodril 18            </t>
-  </si>
-  <si>
-    <t>Utilaj de marcat asfalt – Hofmann H8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Motocompresor mobil – KASER M43         </t>
-  </si>
-  <si>
-    <t>Nacela cu platforma – JLG 40RTS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platforma articulate – Genie Z-45/25 RT   </t>
-  </si>
-  <si>
-    <t>Platforma telescopica – Genie S-60</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platforma tijera electrica – Genie GS2646     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pompa beton – Putzmeister BSA 1005 D </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Concasor piatra – Pegson 1100x650  </t>
-  </si>
-  <si>
-    <t>Statie sortare mobila – Finay 393 C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repartizor agregate – DG 1500      </t>
-  </si>
-  <si>
     <t>cap tir</t>
   </si>
   <si>
@@ -227,21 +92,12 @@
     <t>sararita.jpg</t>
   </si>
   <si>
-    <t>Automobil mixt – Fiat Ducato 2.3 JTD.jpg</t>
-  </si>
-  <si>
-    <t>Autoutilitara – Mercedes-Benz.jpg</t>
-  </si>
-  <si>
     <t>Autoutilitara - Citroen Jumper.jpg</t>
   </si>
   <si>
     <t>Transporter - Volkswagen 7HC.jpg</t>
   </si>
   <si>
-    <t>Incarcator frontal – FIATALLIS FR 15.jpg</t>
-  </si>
-  <si>
     <t>Incarcator frontal - Hanomag 70 E.jpg</t>
   </si>
   <si>
@@ -251,124 +107,268 @@
     <t>Stivuitor STILL DFG 4106.jpg</t>
   </si>
   <si>
-    <t>Motogreder – Komatsu GD 555-5.jpg</t>
-  </si>
-  <si>
-    <t>Greder – Caterpillar 140  H.jpg</t>
-  </si>
-  <si>
-    <t>Buldoexcavator – Caterpillar 428F.jpg</t>
-  </si>
-  <si>
-    <t>Buldoexcavator – Caterpillar 427F2.jpg</t>
-  </si>
-  <si>
-    <t>Buldozer – Caterpillar D6M.jpg</t>
-  </si>
-  <si>
-    <t>Buldozer – Caterpillar D6M LGP.jpg</t>
-  </si>
-  <si>
-    <t>Buldozer – Caterpillar D6M XL.jpg</t>
-  </si>
-  <si>
-    <t>Cilindru compactor – Caterpillar.jpg</t>
-  </si>
-  <si>
-    <t>Cilindru compactor mixt – Lebrero.jpg</t>
-  </si>
-  <si>
-    <t>Cilindru compactor – Terex TV1200.jpg</t>
-  </si>
-  <si>
-    <t>Cilindru compactor mixt – AMMANN.jpg</t>
-  </si>
-  <si>
-    <t>Cilindru compactor mixt – Bomag BW 138 AC.jpg</t>
-  </si>
-  <si>
-    <t>Cilindru compactor Hamm – HD 90.jpg</t>
-  </si>
-  <si>
-    <t>Cilindru compactor Hamm – HD 110.jpg</t>
-  </si>
-  <si>
-    <t>Cilindru compactor – Bomag BW 80 AD.jpg</t>
-  </si>
-  <si>
-    <t>Cilindru compactor manual – Bomag BW 65 HS.jpg</t>
-  </si>
-  <si>
     <t>Excavator pe pneuri  - Liebherr 904 Litronic.jpg</t>
   </si>
   <si>
-    <t>Excavator pe pneuri – Liebherr A 900 B.jpg</t>
-  </si>
-  <si>
-    <t>Excavator pe senile – Komatsu PC 210 LC.jpg</t>
-  </si>
-  <si>
-    <t>Excavator pe senile – Komatsu PC 210-6.jpg</t>
-  </si>
-  <si>
-    <t>Excavator pe senile – Caterpillar 325 C L.jpg</t>
-  </si>
-  <si>
-    <t>Excavator pe senile – Caterpillar 324 D L.jpg</t>
-  </si>
-  <si>
-    <t>Freza asfalt – Wirtgen W100.jpg</t>
-  </si>
-  <si>
-    <t>Freza asfalt – Bitelli SF 101.jpg</t>
-  </si>
-  <si>
-    <t>Finisor – Vogele Super 1600-2.jpg</t>
-  </si>
-  <si>
-    <t>Finisor – Vogele Super 800.jpg</t>
-  </si>
-  <si>
-    <t>Reciclator asfalt – BAGELA BA7000F.jpg</t>
-  </si>
-  <si>
-    <t>Foreza – Wirth Ecodril 18.jpg</t>
-  </si>
-  <si>
-    <t>Utilaj de marcat asfalt – Hofmann H8.jpg</t>
-  </si>
-  <si>
-    <t>Motocompresor mobil – KASER M43.jpg</t>
-  </si>
-  <si>
-    <t>Nacela cu platforma – JLG 40RTS.jpg</t>
-  </si>
-  <si>
-    <t>Platforma articulate – Genie Z-45_25 RT.jpg</t>
-  </si>
-  <si>
-    <t>Platforma telescopica – Genie S-60.jpg</t>
-  </si>
-  <si>
-    <t>Platforma tijera electrica – Genie GS2646.jpg</t>
-  </si>
-  <si>
-    <t>Pompa beton – Putzmeister BSA 1005 D.jpg</t>
-  </si>
-  <si>
-    <t>Concasor piatra – Pegson 1100x650.jpg</t>
-  </si>
-  <si>
-    <t>Statie sortare mobila – Finay 393 C.jpg</t>
-  </si>
-  <si>
-    <t>Repartizor agregate – DG 1500.jpg</t>
-  </si>
-  <si>
     <t>tga32.jpg</t>
   </si>
   <si>
     <t>actros.jpg</t>
+  </si>
+  <si>
+    <t>Betoniera Trakker - Iveco</t>
+  </si>
+  <si>
+    <t>TGA32,350 8*4 BB - MAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R420LA4X2MNA/R420 - Scania  </t>
+  </si>
+  <si>
+    <t>R124LA4*2NA420 - Scania</t>
+  </si>
+  <si>
+    <t>Macara mobila Grove - GMX2035E</t>
+  </si>
+  <si>
+    <t>Automobil mixt - Fiat Ducato 2.3 JTD</t>
+  </si>
+  <si>
+    <t>Automobil mixt - Fiat Ducato 2.3 JTD.jpg</t>
+  </si>
+  <si>
+    <t>Autoutilitara - Mercedes-Benz</t>
+  </si>
+  <si>
+    <t>Autoutilitara - Mercedes-Benz.jpg</t>
+  </si>
+  <si>
+    <t>Incarcator frontal - FIATALLIS FR 15</t>
+  </si>
+  <si>
+    <t>Incarcator frontal - FIATALLIS FR 15.jpg</t>
+  </si>
+  <si>
+    <t>Motogreder - Komatsu GD 555-5</t>
+  </si>
+  <si>
+    <t>Motogreder - Komatsu GD 555-5.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greder - Caterpillar 140  H         </t>
+  </si>
+  <si>
+    <t>Greder - Caterpillar 140  H.jpg</t>
+  </si>
+  <si>
+    <t>Buldoexcavator - Caterpillar 428F</t>
+  </si>
+  <si>
+    <t>Buldoexcavator - Caterpillar 428F.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buldoexcavator - Caterpillar 427F2     </t>
+  </si>
+  <si>
+    <t>Buldoexcavator - Caterpillar 427F2.jpg</t>
+  </si>
+  <si>
+    <t>Buldozer - Caterpillar D6M</t>
+  </si>
+  <si>
+    <t>Buldozer - Caterpillar D6M.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buldozer - Caterpillar D6M LGP  </t>
+  </si>
+  <si>
+    <t>Buldozer - Caterpillar D6M LGP.jpg</t>
+  </si>
+  <si>
+    <t>Buldozer - Caterpillar D6M XL</t>
+  </si>
+  <si>
+    <t>Buldozer - Caterpillar D6M XL.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cilindru compactor - Caterpillar     </t>
+  </si>
+  <si>
+    <t>Cilindru compactor - Caterpillar.jpg</t>
+  </si>
+  <si>
+    <t>Cilindru compactor mixt - Lebrero</t>
+  </si>
+  <si>
+    <t>Cilindru compactor mixt - Lebrero.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cilindru compactor - Terex TV1200                       </t>
+  </si>
+  <si>
+    <t>Cilindru compactor - Terex TV1200.jpg</t>
+  </si>
+  <si>
+    <t>Cilindru compactor mixt - AMMANN</t>
+  </si>
+  <si>
+    <t>Cilindru compactor mixt - AMMANN.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cilindru compactor mixt - Bomag BW 138 AC      </t>
+  </si>
+  <si>
+    <t>Cilindru compactor mixt - Bomag BW 138 AC.jpg</t>
+  </si>
+  <si>
+    <t>Cilindru compactor Hamm - HD 90</t>
+  </si>
+  <si>
+    <t>Cilindru compactor Hamm - HD 90.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cilindru compactor Hamm - HD 110  </t>
+  </si>
+  <si>
+    <t>Cilindru compactor Hamm - HD 110.jpg</t>
+  </si>
+  <si>
+    <t>Cilindru compactor - Bomag BW 80 AD</t>
+  </si>
+  <si>
+    <t>Cilindru compactor - Bomag BW 80 AD.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cilindru compactor manual - Bomag BW 65 HS        </t>
+  </si>
+  <si>
+    <t>Cilindru compactor manual - Bomag BW 65 HS.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excavator pe pneuri - Liebherr A 900 B     </t>
+  </si>
+  <si>
+    <t>Excavator pe pneuri - Liebherr A 900 B.jpg</t>
+  </si>
+  <si>
+    <t>Excavator pe senile - Komatsu PC 210 LC</t>
+  </si>
+  <si>
+    <t>Excavator pe senile - Komatsu PC 210 LC.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excavator pe senile - Komatsu PC 210-6 </t>
+  </si>
+  <si>
+    <t>Excavator pe senile - Komatsu PC 210-6.jpg</t>
+  </si>
+  <si>
+    <t>Excavator pe senile - Caterpillar 325 C L</t>
+  </si>
+  <si>
+    <t>Excavator pe senile - Caterpillar 325 C L.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Excavator pe senile - Caterpillar 324 D L  </t>
+  </si>
+  <si>
+    <t>Excavator pe senile - Caterpillar 324 D L.jpg</t>
+  </si>
+  <si>
+    <t>Freza asfalt - Wirtgen W100</t>
+  </si>
+  <si>
+    <t>Freza asfalt - Wirtgen W100.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freza asfalt - Bitelli SF 101    </t>
+  </si>
+  <si>
+    <t>Freza asfalt - Bitelli SF 101.jpg</t>
+  </si>
+  <si>
+    <t>Finisor - Vogele Super 1600-2</t>
+  </si>
+  <si>
+    <t>Finisor - Vogele Super 1600-2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finisor - Vogele Super 800   </t>
+  </si>
+  <si>
+    <t>Finisor - Vogele Super 800.jpg</t>
+  </si>
+  <si>
+    <t>Reciclator asfalt - BAGELA BA7000F</t>
+  </si>
+  <si>
+    <t>Reciclator asfalt - BAGELA BA7000F.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreza - Wirth Ecodril 18            </t>
+  </si>
+  <si>
+    <t>Foreza - Wirth Ecodril 18.jpg</t>
+  </si>
+  <si>
+    <t>Utilaj de marcat asfalt - Hofmann H8</t>
+  </si>
+  <si>
+    <t>Utilaj de marcat asfalt - Hofmann H8.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motocompresor mobil - KASER M43         </t>
+  </si>
+  <si>
+    <t>Motocompresor mobil - KASER M43.jpg</t>
+  </si>
+  <si>
+    <t>Nacela cu platforma - JLG 40RTS</t>
+  </si>
+  <si>
+    <t>Nacela cu platforma - JLG 40RTS.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platforma articulate - Genie Z-45/25 RT   </t>
+  </si>
+  <si>
+    <t>Platforma articulate - Genie Z-45_25 RT.jpg</t>
+  </si>
+  <si>
+    <t>Platforma telescopica - Genie S-60</t>
+  </si>
+  <si>
+    <t>Platforma telescopica - Genie S-60.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platforma tijera electrica - Genie GS2646     </t>
+  </si>
+  <si>
+    <t>Platforma tijera electrica - Genie GS2646.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pompa beton - Putzmeister BSA 1005 D </t>
+  </si>
+  <si>
+    <t>Pompa beton - Putzmeister BSA 1005 D.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concasor piatra - Pegson 1100x650  </t>
+  </si>
+  <si>
+    <t>Concasor piatra - Pegson 1100x650.jpg</t>
+  </si>
+  <si>
+    <t>Statie sortare mobila - Finay 393 C</t>
+  </si>
+  <si>
+    <t>Statie sortare mobila - Finay 393 C.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repartizor agregate - DG 1500      </t>
+  </si>
+  <si>
+    <t>Repartizor agregate - DG 1500.jpg</t>
   </si>
 </sst>
 </file>
@@ -726,7 +726,7 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,14 +745,14 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" t="str">
         <f>CONCATENATE("{id:",A1,",tip:'",B1,"',nume:'",C1,"',url:'resources/parc/",D1,"'},")</f>
-        <v>{id:1,tip:'betoniera',nume:'Betoniera Trakker – Iveco',url:'resources/parc/betoniera_iveco.jpg'},</v>
+        <v>{id:1,tip:'betoniera',nume:'Betoniera Trakker - Iveco',url:'resources/parc/betoniera_iveco.jpg'},</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -763,14 +763,14 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="E2" t="str">
         <f t="shared" ref="E2:E56" si="0">CONCATENATE("{id:",A2,",tip:'",B2,"',nume:'",C2,"',url:'resources/parc/",D2,"'},")</f>
-        <v>{id:2,tip:'betoniera',nume:'TGA32,350 8*4 BB – MAN',url:'resources/parc/tga32.jpg'},</v>
+        <v>{id:2,tip:'betoniera',nume:'TGA32,350 8*4 BB - MAN',url:'resources/parc/tga32.jpg'},</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>29</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" si="0"/>
@@ -796,17 +796,17 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>{id:4,tip:'cap tir',nume:'R420LA4X2MNA/R420 – Scania  ',url:'resources/parc/R420LA4X2MNA.jpg'},</v>
+        <v>{id:4,tip:'cap tir',nume:'R420LA4X2MNA/R420 - Scania  ',url:'resources/parc/R420LA4X2MNA.jpg'},</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -814,17 +814,17 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>{id:5,tip:'cap tir',nume:'R124LA4*2NA420 – Scania',url:'resources/parc/R124LA42NA420.jpg'},</v>
+        <v>{id:5,tip:'cap tir',nume:'R124LA4*2NA420 - Scania',url:'resources/parc/R124LA42NA420.jpg'},</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -832,13 +832,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
@@ -850,17 +850,17 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>{id:7,tip:'macara',nume:'Macara mobila Grove – GMX2035E',url:'resources/parc/MacaraMobilaGroveGMX2035E.jpg'},</v>
+        <v>{id:7,tip:'macara',nume:'Macara mobila Grove - GMX2035E',url:'resources/parc/MacaraMobilaGroveGMX2035E.jpg'},</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -868,13 +868,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
@@ -886,10 +886,10 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
@@ -901,10 +901,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
@@ -916,14 +916,14 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>{id:11,tip:'',nume:'Automobil mixt – Fiat Ducato 2.3 JTD',url:'resources/parc/Automobil mixt – Fiat Ducato 2.3 JTD.jpg'},</v>
+        <v>{id:11,tip:'',nume:'Automobil mixt - Fiat Ducato 2.3 JTD',url:'resources/parc/Automobil mixt - Fiat Ducato 2.3 JTD.jpg'},</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -931,14 +931,14 @@
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>{id:12,tip:'',nume:'Autoutilitara – Mercedes-Benz',url:'resources/parc/Autoutilitara – Mercedes-Benz.jpg'},</v>
+        <v>{id:12,tip:'',nume:'Autoutilitara - Mercedes-Benz',url:'resources/parc/Autoutilitara - Mercedes-Benz.jpg'},</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -946,10 +946,10 @@
         <v>13</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>22</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
@@ -961,10 +961,10 @@
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
@@ -976,14 +976,14 @@
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>{id:15,tip:'',nume:'Incarcator frontal – FIATALLIS FR 15',url:'resources/parc/Incarcator frontal – FIATALLIS FR 15.jpg'},</v>
+        <v>{id:15,tip:'',nume:'Incarcator frontal - FIATALLIS FR 15',url:'resources/parc/Incarcator frontal - FIATALLIS FR 15.jpg'},</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -991,10 +991,10 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
@@ -1006,10 +1006,10 @@
         <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
@@ -1021,10 +1021,10 @@
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
@@ -1036,14 +1036,14 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>{id:19,tip:'',nume:'Motogreder – Komatsu GD 555-5',url:'resources/parc/Motogreder – Komatsu GD 555-5.jpg'},</v>
+        <v>{id:19,tip:'',nume:'Motogreder - Komatsu GD 555-5',url:'resources/parc/Motogreder - Komatsu GD 555-5.jpg'},</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1051,14 +1051,14 @@
         <v>20</v>
       </c>
       <c r="C20" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>{id:20,tip:'',nume:'Greder – Caterpillar 140  H         ',url:'resources/parc/Greder – Caterpillar 140  H.jpg'},</v>
+        <v>{id:20,tip:'',nume:'Greder - Caterpillar 140  H         ',url:'resources/parc/Greder - Caterpillar 140  H.jpg'},</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1066,14 +1066,14 @@
         <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>{id:21,tip:'',nume:'Buldoexcavator – Caterpillar 428F',url:'resources/parc/Buldoexcavator – Caterpillar 428F.jpg'},</v>
+        <v>{id:21,tip:'',nume:'Buldoexcavator - Caterpillar 428F',url:'resources/parc/Buldoexcavator - Caterpillar 428F.jpg'},</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1081,14 +1081,14 @@
         <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>{id:22,tip:'',nume:'Buldoexcavator – Caterpillar 427F2     ',url:'resources/parc/Buldoexcavator – Caterpillar 427F2.jpg'},</v>
+        <v>{id:22,tip:'',nume:'Buldoexcavator - Caterpillar 427F2     ',url:'resources/parc/Buldoexcavator - Caterpillar 427F2.jpg'},</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1096,14 +1096,14 @@
         <v>23</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>{id:23,tip:'',nume:'Buldozer – Caterpillar D6M',url:'resources/parc/Buldozer – Caterpillar D6M.jpg'},</v>
+        <v>{id:23,tip:'',nume:'Buldozer - Caterpillar D6M',url:'resources/parc/Buldozer - Caterpillar D6M.jpg'},</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1111,14 +1111,14 @@
         <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>{id:24,tip:'',nume:'Buldozer – Caterpillar D6M LGP  ',url:'resources/parc/Buldozer – Caterpillar D6M LGP.jpg'},</v>
+        <v>{id:24,tip:'',nume:'Buldozer - Caterpillar D6M LGP  ',url:'resources/parc/Buldozer - Caterpillar D6M LGP.jpg'},</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -1126,14 +1126,14 @@
         <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>{id:25,tip:'',nume:'Buldozer – Caterpillar D6M XL',url:'resources/parc/Buldozer – Caterpillar D6M XL.jpg'},</v>
+        <v>{id:25,tip:'',nume:'Buldozer - Caterpillar D6M XL',url:'resources/parc/Buldozer - Caterpillar D6M XL.jpg'},</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -1141,14 +1141,14 @@
         <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>{id:26,tip:'',nume:'Cilindru compactor – Caterpillar     ',url:'resources/parc/Cilindru compactor – Caterpillar.jpg'},</v>
+        <v>{id:26,tip:'',nume:'Cilindru compactor - Caterpillar     ',url:'resources/parc/Cilindru compactor - Caterpillar.jpg'},</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1156,14 +1156,14 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>83</v>
+        <v>58</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>{id:27,tip:'',nume:'Cilindru compactor mixt – Lebrero',url:'resources/parc/Cilindru compactor mixt – Lebrero.jpg'},</v>
+        <v>{id:27,tip:'',nume:'Cilindru compactor mixt - Lebrero',url:'resources/parc/Cilindru compactor mixt - Lebrero.jpg'},</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -1171,14 +1171,14 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="D28" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>{id:28,tip:'',nume:'Cilindru compactor – Terex TV1200                       ',url:'resources/parc/Cilindru compactor – Terex TV1200.jpg'},</v>
+        <v>{id:28,tip:'',nume:'Cilindru compactor - Terex TV1200                       ',url:'resources/parc/Cilindru compactor - Terex TV1200.jpg'},</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1186,14 +1186,14 @@
         <v>29</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>{id:29,tip:'',nume:'Cilindru compactor mixt – AMMANN',url:'resources/parc/Cilindru compactor mixt – AMMANN.jpg'},</v>
+        <v>{id:29,tip:'',nume:'Cilindru compactor mixt - AMMANN',url:'resources/parc/Cilindru compactor mixt - AMMANN.jpg'},</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -1201,14 +1201,14 @@
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>{id:30,tip:'',nume:'Cilindru compactor mixt – Bomag BW 138 AC      ',url:'resources/parc/Cilindru compactor mixt – Bomag BW 138 AC.jpg'},</v>
+        <v>{id:30,tip:'',nume:'Cilindru compactor mixt - Bomag BW 138 AC      ',url:'resources/parc/Cilindru compactor mixt - Bomag BW 138 AC.jpg'},</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1216,14 +1216,14 @@
         <v>31</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>{id:31,tip:'',nume:'Cilindru compactor Hamm – HD 90',url:'resources/parc/Cilindru compactor Hamm – HD 90.jpg'},</v>
+        <v>{id:31,tip:'',nume:'Cilindru compactor Hamm - HD 90',url:'resources/parc/Cilindru compactor Hamm - HD 90.jpg'},</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1231,14 +1231,14 @@
         <v>32</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>{id:32,tip:'',nume:'Cilindru compactor Hamm – HD 110  ',url:'resources/parc/Cilindru compactor Hamm – HD 110.jpg'},</v>
+        <v>{id:32,tip:'',nume:'Cilindru compactor Hamm - HD 110  ',url:'resources/parc/Cilindru compactor Hamm - HD 110.jpg'},</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1246,14 +1246,14 @@
         <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" si="0"/>
-        <v>{id:33,tip:'',nume:'Cilindru compactor – Bomag BW 80 AD',url:'resources/parc/Cilindru compactor – Bomag BW 80 AD.jpg'},</v>
+        <v>{id:33,tip:'',nume:'Cilindru compactor - Bomag BW 80 AD',url:'resources/parc/Cilindru compactor - Bomag BW 80 AD.jpg'},</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1261,14 +1261,14 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="D34" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" si="0"/>
-        <v>{id:34,tip:'',nume:'Cilindru compactor manual – Bomag BW 65 HS        ',url:'resources/parc/Cilindru compactor manual – Bomag BW 65 HS.jpg'},</v>
+        <v>{id:34,tip:'',nume:'Cilindru compactor manual - Bomag BW 65 HS        ',url:'resources/parc/Cilindru compactor manual - Bomag BW 65 HS.jpg'},</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1276,10 +1276,10 @@
         <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
@@ -1291,14 +1291,14 @@
         <v>36</v>
       </c>
       <c r="C36" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="D36" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="E36" t="str">
         <f t="shared" si="0"/>
-        <v>{id:36,tip:'',nume:'Excavator pe pneuri – Liebherr A 900 B     ',url:'resources/parc/Excavator pe pneuri – Liebherr A 900 B.jpg'},</v>
+        <v>{id:36,tip:'',nume:'Excavator pe pneuri - Liebherr A 900 B     ',url:'resources/parc/Excavator pe pneuri - Liebherr A 900 B.jpg'},</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -1306,14 +1306,14 @@
         <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="E37" t="str">
         <f t="shared" si="0"/>
-        <v>{id:37,tip:'',nume:'Excavator pe senile – Komatsu PC 210 LC',url:'resources/parc/Excavator pe senile – Komatsu PC 210 LC.jpg'},</v>
+        <v>{id:37,tip:'',nume:'Excavator pe senile - Komatsu PC 210 LC',url:'resources/parc/Excavator pe senile - Komatsu PC 210 LC.jpg'},</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -1321,14 +1321,14 @@
         <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="E38" t="str">
         <f t="shared" si="0"/>
-        <v>{id:38,tip:'',nume:'Excavator pe senile – Komatsu PC 210-6 ',url:'resources/parc/Excavator pe senile – Komatsu PC 210-6.jpg'},</v>
+        <v>{id:38,tip:'',nume:'Excavator pe senile - Komatsu PC 210-6 ',url:'resources/parc/Excavator pe senile - Komatsu PC 210-6.jpg'},</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1336,14 +1336,14 @@
         <v>39</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E39" t="str">
         <f t="shared" si="0"/>
-        <v>{id:39,tip:'',nume:'Excavator pe senile – Caterpillar 325 C L',url:'resources/parc/Excavator pe senile – Caterpillar 325 C L.jpg'},</v>
+        <v>{id:39,tip:'',nume:'Excavator pe senile - Caterpillar 325 C L',url:'resources/parc/Excavator pe senile - Caterpillar 325 C L.jpg'},</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1351,14 +1351,14 @@
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E40" t="str">
         <f t="shared" si="0"/>
-        <v>{id:40,tip:'',nume:'Excavator pe senile – Caterpillar 324 D L  ',url:'resources/parc/Excavator pe senile – Caterpillar 324 D L.jpg'},</v>
+        <v>{id:40,tip:'',nume:'Excavator pe senile - Caterpillar 324 D L  ',url:'resources/parc/Excavator pe senile - Caterpillar 324 D L.jpg'},</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -1366,14 +1366,14 @@
         <v>41</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E41" t="str">
         <f t="shared" si="0"/>
-        <v>{id:41,tip:'',nume:'Freza asfalt – Wirtgen W100',url:'resources/parc/Freza asfalt – Wirtgen W100.jpg'},</v>
+        <v>{id:41,tip:'',nume:'Freza asfalt - Wirtgen W100',url:'resources/parc/Freza asfalt - Wirtgen W100.jpg'},</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -1381,14 +1381,14 @@
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="E42" t="str">
         <f t="shared" si="0"/>
-        <v>{id:42,tip:'',nume:'Freza asfalt – Bitelli SF 101    ',url:'resources/parc/Freza asfalt – Bitelli SF 101.jpg'},</v>
+        <v>{id:42,tip:'',nume:'Freza asfalt - Bitelli SF 101    ',url:'resources/parc/Freza asfalt - Bitelli SF 101.jpg'},</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -1396,14 +1396,14 @@
         <v>43</v>
       </c>
       <c r="C43" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="0"/>
-        <v>{id:43,tip:'',nume:'Finisor – Vogele Super 1600-2',url:'resources/parc/Finisor – Vogele Super 1600-2.jpg'},</v>
+        <v>{id:43,tip:'',nume:'Finisor - Vogele Super 1600-2',url:'resources/parc/Finisor - Vogele Super 1600-2.jpg'},</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -1411,14 +1411,14 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="0"/>
-        <v>{id:44,tip:'',nume:'Finisor – Vogele Super 800   ',url:'resources/parc/Finisor – Vogele Super 800.jpg'},</v>
+        <v>{id:44,tip:'',nume:'Finisor - Vogele Super 800   ',url:'resources/parc/Finisor - Vogele Super 800.jpg'},</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1426,14 +1426,14 @@
         <v>45</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E45" t="str">
         <f t="shared" si="0"/>
-        <v>{id:45,tip:'',nume:'Reciclator asfalt – BAGELA BA7000F',url:'resources/parc/Reciclator asfalt – BAGELA BA7000F.jpg'},</v>
+        <v>{id:45,tip:'',nume:'Reciclator asfalt - BAGELA BA7000F',url:'resources/parc/Reciclator asfalt - BAGELA BA7000F.jpg'},</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1441,14 +1441,14 @@
         <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>93</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E46" t="str">
         <f t="shared" si="0"/>
-        <v>{id:46,tip:'',nume:'Foreza – Wirth Ecodril 18            ',url:'resources/parc/Foreza – Wirth Ecodril 18.jpg'},</v>
+        <v>{id:46,tip:'',nume:'Foreza - Wirth Ecodril 18            ',url:'resources/parc/Foreza - Wirth Ecodril 18.jpg'},</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1456,14 +1456,14 @@
         <v>47</v>
       </c>
       <c r="C47" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="D47" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="E47" t="str">
         <f t="shared" si="0"/>
-        <v>{id:47,tip:'',nume:'Utilaj de marcat asfalt – Hofmann H8',url:'resources/parc/Utilaj de marcat asfalt – Hofmann H8.jpg'},</v>
+        <v>{id:47,tip:'',nume:'Utilaj de marcat asfalt - Hofmann H8',url:'resources/parc/Utilaj de marcat asfalt - Hofmann H8.jpg'},</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -1471,14 +1471,14 @@
         <v>48</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="E48" t="str">
         <f t="shared" si="0"/>
-        <v>{id:48,tip:'',nume:'Motocompresor mobil – KASER M43         ',url:'resources/parc/Motocompresor mobil – KASER M43.jpg'},</v>
+        <v>{id:48,tip:'',nume:'Motocompresor mobil - KASER M43         ',url:'resources/parc/Motocompresor mobil - KASER M43.jpg'},</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -1486,14 +1486,14 @@
         <v>49</v>
       </c>
       <c r="C49" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E49" t="str">
         <f t="shared" si="0"/>
-        <v>{id:49,tip:'',nume:'Nacela cu platforma – JLG 40RTS',url:'resources/parc/Nacela cu platforma – JLG 40RTS.jpg'},</v>
+        <v>{id:49,tip:'',nume:'Nacela cu platforma - JLG 40RTS',url:'resources/parc/Nacela cu platforma - JLG 40RTS.jpg'},</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1501,14 +1501,14 @@
         <v>50</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E50" t="str">
         <f t="shared" si="0"/>
-        <v>{id:50,tip:'',nume:'Platforma articulate – Genie Z-45/25 RT   ',url:'resources/parc/Platforma articulate – Genie Z-45_25 RT.jpg'},</v>
+        <v>{id:50,tip:'',nume:'Platforma articulate - Genie Z-45/25 RT   ',url:'resources/parc/Platforma articulate - Genie Z-45_25 RT.jpg'},</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1516,14 +1516,14 @@
         <v>51</v>
       </c>
       <c r="C51" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E51" t="str">
         <f t="shared" si="0"/>
-        <v>{id:51,tip:'',nume:'Platforma telescopica – Genie S-60',url:'resources/parc/Platforma telescopica – Genie S-60.jpg'},</v>
+        <v>{id:51,tip:'',nume:'Platforma telescopica - Genie S-60',url:'resources/parc/Platforma telescopica - Genie S-60.jpg'},</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1531,14 +1531,14 @@
         <v>52</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E52" t="str">
         <f t="shared" si="0"/>
-        <v>{id:52,tip:'',nume:'Platforma tijera electrica – Genie GS2646     ',url:'resources/parc/Platforma tijera electrica – Genie GS2646.jpg'},</v>
+        <v>{id:52,tip:'',nume:'Platforma tijera electrica - Genie GS2646     ',url:'resources/parc/Platforma tijera electrica - Genie GS2646.jpg'},</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1546,14 +1546,14 @@
         <v>53</v>
       </c>
       <c r="C53" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="D53" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E53" t="str">
         <f t="shared" si="0"/>
-        <v>{id:53,tip:'',nume:'Pompa beton – Putzmeister BSA 1005 D ',url:'resources/parc/Pompa beton – Putzmeister BSA 1005 D.jpg'},</v>
+        <v>{id:53,tip:'',nume:'Pompa beton - Putzmeister BSA 1005 D ',url:'resources/parc/Pompa beton - Putzmeister BSA 1005 D.jpg'},</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -1561,14 +1561,14 @@
         <v>54</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="D54" t="s">
         <v>110</v>
       </c>
       <c r="E54" t="str">
         <f t="shared" si="0"/>
-        <v>{id:54,tip:'',nume:'Concasor piatra – Pegson 1100x650  ',url:'resources/parc/Concasor piatra – Pegson 1100x650.jpg'},</v>
+        <v>{id:54,tip:'',nume:'Concasor piatra - Pegson 1100x650  ',url:'resources/parc/Concasor piatra - Pegson 1100x650.jpg'},</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -1576,14 +1576,14 @@
         <v>55</v>
       </c>
       <c r="C55" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E55" t="str">
         <f t="shared" si="0"/>
-        <v>{id:55,tip:'',nume:'Statie sortare mobila – Finay 393 C',url:'resources/parc/Statie sortare mobila – Finay 393 C.jpg'},</v>
+        <v>{id:55,tip:'',nume:'Statie sortare mobila - Finay 393 C',url:'resources/parc/Statie sortare mobila - Finay 393 C.jpg'},</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -1591,14 +1591,14 @@
         <v>56</v>
       </c>
       <c r="C56" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E56" t="str">
         <f t="shared" si="0"/>
-        <v>{id:56,tip:'',nume:'Repartizor agregate – DG 1500      ',url:'resources/parc/Repartizor agregate – DG 1500.jpg'},</v>
+        <v>{id:56,tip:'',nume:'Repartizor agregate - DG 1500      ',url:'resources/parc/Repartizor agregate - DG 1500.jpg'},</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Utilaje.xlsx
+++ b/resources/Utilaje.xlsx
@@ -726,14 +726,14 @@
   <dimension ref="A1:E56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.42578125" customWidth="1"/>
     <col min="3" max="3" width="27.42578125" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" customWidth="1"/>
     <col min="5" max="5" width="94.7109375" customWidth="1"/>
   </cols>
   <sheetData>
